--- a/his项目进度把控表.xlsx
+++ b/his项目进度把控表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
   <si>
     <t>项目名称</t>
   </si>
@@ -168,11 +168,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进度无异常</t>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士系统、登录页面模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统、前台收银系统测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者模块、个人主页模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块-改变左侧导航栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Header 提示 - vuex </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并分支、解决冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导组员完成任务、并上传分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士系统查看投诉信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 医院基本介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 医生护士人数介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 优秀医护人员介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药库系统、登录模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药库系统、登录模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士系统、登录页面模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统、前台收银系统测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者模块、个人主页模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 优秀医护人员介绍、 今周患者就诊数量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统模块 - 轮班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统 查看科室投诉信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页介绍ajax读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页样式效果设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页样式效果实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 中药房-药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 中药房-药品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 西药房-药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 西药房-药品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台收银系统 收取费用，已收取，找零，挂号医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台收银系统 患者信息录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者-删除患者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页 - 个人基本信息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页-退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页-查看投诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/8/1 -- 2017/8/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页介绍数据读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者-增加患者住院信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页、验证细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块-vue-router 2.0 登录跳转与路由钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>梁明明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进度无异常</t>
@@ -184,166 +364,6 @@
   </si>
   <si>
     <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士系统、登录页面模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统、前台收银系统测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者模块、个人主页模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录模块-读取登录用户名，密码，读取用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页 vuex、验证细化、登录基本页面、指导组员上传已经完成的内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录模块-改变左侧导航栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Header 提示 - vuex </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并分支、解决冲突</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指导组员完成任务、并上传分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士系统查看投诉信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 医院基本介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 医生护士人数介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 优秀医护人员介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药库系统、登录模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药库系统、登录模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士系统、登录页面模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统、前台收银系统测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者模块、个人主页模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 优秀医护人员介绍、 今周患者就诊数量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统模块 - 轮班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统 查看科室投诉信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页介绍编辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页介绍ajax读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页样式效果设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页样式效果实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 中药房-药师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 中药房-药品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 西药房-药师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 西药房-药品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台收银系统 收取费用，已收取，找零，挂号医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台收银系统 患者信息录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者-编辑患者信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者-删除患者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页 - 个人基本信息展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页-修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页-退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页-查看投诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/8/1 -- 2017/8/10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,14 +857,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="48.625" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="57.875" customWidth="1"/>
@@ -908,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1024,7 +1044,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1124,7 +1144,7 @@
         <v>40</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1144,7 +1164,7 @@
         <v>40</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1164,7 +1184,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1184,7 +1204,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1201,15 +1221,15 @@
         <v>42949</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1217,13 +1237,19 @@
       <c r="C24" s="3">
         <v>42950</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="4"/>
+      <c r="D24" s="10">
+        <v>42950</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -1231,13 +1257,19 @@
       <c r="C25" s="3">
         <v>42950</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="D25" s="9">
+        <v>42950</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -1245,13 +1277,19 @@
       <c r="C26" s="11">
         <v>42950</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="12">
+        <v>42950</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1259,13 +1297,19 @@
       <c r="C27" s="11">
         <v>42950</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="D27" s="15">
+        <v>42950</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
@@ -1273,13 +1317,19 @@
       <c r="C28" s="11">
         <v>42950</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="D28" s="15">
+        <v>42950</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -1293,7 +1343,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -1307,7 +1357,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -1321,7 +1371,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>27</v>
@@ -1335,7 +1385,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>29</v>
@@ -1349,7 +1399,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -1363,7 +1413,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
@@ -1377,7 +1427,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -1391,7 +1441,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -1405,7 +1455,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>29</v>
@@ -1419,7 +1469,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -1433,7 +1483,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
@@ -1447,7 +1497,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -1461,7 +1511,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>27</v>
@@ -1475,7 +1525,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
@@ -1489,7 +1539,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -1503,7 +1553,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
@@ -1517,7 +1567,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -1531,7 +1581,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>27</v>
@@ -1545,7 +1595,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>29</v>
@@ -1559,7 +1609,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -1587,7 +1637,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -1601,7 +1651,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
@@ -1615,7 +1665,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>29</v>
@@ -1629,7 +1679,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -1643,7 +1693,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>20</v>
@@ -1657,7 +1707,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -1671,7 +1721,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>27</v>
@@ -1685,7 +1735,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -1699,7 +1749,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>17</v>
@@ -1713,7 +1763,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>20</v>
@@ -1727,7 +1777,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>24</v>
@@ -1741,7 +1791,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>
@@ -1755,7 +1805,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>29</v>

--- a/his项目进度把控表.xlsx
+++ b/his项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>项目名称</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -857,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1321,10 +1333,10 @@
         <v>42950</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1337,9 +1349,15 @@
       <c r="C29" s="3">
         <v>42951</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4"/>
+      <c r="D29" s="10">
+        <v>42951</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
@@ -1351,9 +1369,15 @@
       <c r="C30" s="3">
         <v>42951</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="9">
+        <v>42951</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
@@ -1365,9 +1389,15 @@
       <c r="C31" s="11">
         <v>42951</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="D31" s="12">
+        <v>42951</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
@@ -1379,9 +1409,15 @@
       <c r="C32" s="11">
         <v>42951</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="15">
+        <v>42951</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
@@ -1393,9 +1429,15 @@
       <c r="C33" s="11">
         <v>42951</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="15">
+        <v>42951</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">

--- a/his项目进度把控表.xlsx
+++ b/his项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>项目名称</t>
   </si>
@@ -340,6 +340,26 @@
   </si>
   <si>
     <t>登录模块-vue-router 2.0 登录跳转与路由钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -869,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1373,7 +1393,7 @@
         <v>42951</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>93</v>
@@ -1393,10 +1413,10 @@
         <v>42951</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1433,10 +1453,10 @@
         <v>42951</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1449,9 +1469,15 @@
       <c r="C34" s="3">
         <v>42952</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="10">
+        <v>42952</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
@@ -1463,9 +1489,15 @@
       <c r="C35" s="3">
         <v>42952</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="D35" s="9">
+        <v>42952</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
@@ -1477,9 +1509,15 @@
       <c r="C36" s="3">
         <v>42952</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="D36" s="12">
+        <v>42952</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
@@ -1491,9 +1529,15 @@
       <c r="C37" s="3">
         <v>42952</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="D37" s="15">
+        <v>42952</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
@@ -1505,9 +1549,15 @@
       <c r="C38" s="3">
         <v>42952</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="D38" s="15">
+        <v>42952</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
@@ -1519,9 +1569,15 @@
       <c r="C39" s="3">
         <v>42953</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="4"/>
+      <c r="D39" s="10">
+        <v>42953</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
@@ -1533,9 +1589,15 @@
       <c r="C40" s="3">
         <v>42953</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="9">
+        <v>42953</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
@@ -1547,9 +1609,15 @@
       <c r="C41" s="3">
         <v>42953</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="D41" s="12">
+        <v>42953</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
@@ -1561,9 +1629,15 @@
       <c r="C42" s="3">
         <v>42953</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="D42" s="15">
+        <v>42953</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
@@ -1575,9 +1649,15 @@
       <c r="C43" s="3">
         <v>42953</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="15">
+        <v>42953</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
